--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_9_2024-05-30_PH_60/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_9_2024-05-30_PH_60/output.xlsx
@@ -511,19 +511,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.005941447</t>
+          <t>0.0114179915</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.059574317</t>
+          <t>0.065131575</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -571,19 +571,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.088384554</t>
+          <t>0.083192095</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.21740523</t>
+          <t>0.2073094</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
